--- a/FormsApp/FormsApp/resources/Electronic_instruction_page.xlsx
+++ b/FormsApp/FormsApp/resources/Electronic_instruction_page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\FormsApp\FormsApp\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD05F82A-0AC7-41B4-9158-B17C3103EF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB61C1C-C860-43A0-9D83-E6C87A6BCAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
   <si>
     <t>QUOTE No.:</t>
   </si>
@@ -269,7 +269,25 @@
     <t xml:space="preserve">Policy nr is </t>
   </si>
   <si>
-    <t>5</t>
+    <t>Viljoen</t>
+  </si>
+  <si>
+    <t>Cilliers</t>
+  </si>
+  <si>
+    <t>1234567890987</t>
+  </si>
+  <si>
+    <t>boom</t>
+  </si>
+  <si>
+    <t>Cool wees</t>
+  </si>
+  <si>
+    <t>Boom</t>
+  </si>
+  <si>
+    <t>2 years</t>
   </si>
 </sst>
 </file>
@@ -1208,65 +1226,85 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1283,48 +1321,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1545,7 +1563,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+      <selection activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1565,17 +1583,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="115"/>
       <c r="C1" s="55"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="54"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="55"/>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="54"/>
+      <c r="H1" s="115"/>
       <c r="I1" s="55"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -1599,17 +1617,17 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="115"/>
       <c r="C2" s="55"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="54"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="55"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="54"/>
+      <c r="H2" s="115"/>
       <c r="I2" s="55"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1635,17 +1653,17 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="115"/>
       <c r="C3" s="55"/>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="55"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="54"/>
+      <c r="H3" s="115"/>
       <c r="I3" s="55"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1671,8 +1689,8 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1728,17 +1746,17 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="60"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1761,18 +1779,18 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="61" t="s">
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="113"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1797,14 +1815,16 @@
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="54" t="s">
+        <v>72</v>
+      </c>
       <c r="C8" s="55"/>
       <c r="D8" s="55"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="68"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1829,14 +1849,16 @@
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
+      <c r="B9" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1861,16 +1883,16 @@
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="73" t="s">
-        <v>71</v>
+      <c r="B10" s="105" t="s">
+        <v>73</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="71"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1893,14 +1915,16 @@
       <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="71"/>
+      <c r="B11" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="59"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1923,14 +1947,16 @@
       <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="71"/>
+      <c r="B12" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1953,14 +1979,16 @@
       <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="71"/>
+      <c r="B13" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1983,16 +2011,18 @@
       <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="69" t="s">
+      <c r="B14" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="71"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2015,16 +2045,18 @@
       <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="106" t="s">
+      <c r="B15" s="86">
+        <v>1000000</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2122,21 +2154,21 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="66" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="75"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="68"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2156,21 +2188,21 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="71"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2190,19 +2222,19 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="81"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -2222,21 +2254,21 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="76"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="71"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -2256,19 +2288,19 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="103"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="102"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="103"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="81"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -2288,19 +2320,19 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="66" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="68"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="71"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -2320,8 +2352,8 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="81"/>
-      <c r="B24" s="108"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -2350,11 +2382,11 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="81"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="108" t="s">
+      <c r="C25" s="74" t="s">
         <v>69</v>
       </c>
       <c r="D25" s="55"/>
@@ -2362,7 +2394,7 @@
       <c r="F25" s="55"/>
       <c r="G25" s="55"/>
       <c r="H25" s="55"/>
-      <c r="I25" s="65"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2382,13 +2414,13 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="32" t="s">
         <v>35</v>
       </c>
@@ -2418,17 +2450,17 @@
       <c r="B27" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="110"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="75"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="68"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="71"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2454,15 +2486,15 @@
       <c r="B28" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="111"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="78"/>
       <c r="F28" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="76"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="71"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2486,15 +2518,15 @@
       <c r="B29" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="114"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="113"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="79"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2514,19 +2546,19 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="66" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="86"/>
+      <c r="D30" s="65"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
-      <c r="G30" s="64"/>
+      <c r="G30" s="54"/>
       <c r="H30" s="55"/>
-      <c r="I30" s="65"/>
+      <c r="I30" s="56"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2546,19 +2578,19 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="82"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="86"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="64"/>
+      <c r="G31" s="54"/>
       <c r="H31" s="55"/>
-      <c r="I31" s="65"/>
+      <c r="I31" s="56"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2578,21 +2610,21 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="66" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="64"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="55"/>
       <c r="F32" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="64"/>
+      <c r="G32" s="54"/>
       <c r="H32" s="55"/>
-      <c r="I32" s="65"/>
+      <c r="I32" s="56"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2612,19 +2644,19 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="82"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
       <c r="F33" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="89"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="90"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="100"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2644,19 +2676,19 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="66" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="43" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="44"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="68"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="71"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2676,17 +2708,17 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="81"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="83"/>
+      <c r="C35" s="95"/>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
       <c r="G35" s="55"/>
       <c r="H35" s="55"/>
-      <c r="I35" s="65"/>
+      <c r="I35" s="56"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2706,19 +2738,19 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="81"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="83"/>
+      <c r="C36" s="95"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
-      <c r="F36" s="92" t="s">
+      <c r="F36" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="88"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="65"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="56"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -2738,19 +2770,19 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="82"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="46"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="94" t="s">
+      <c r="D37" s="96"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="85"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="79"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="63"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -2770,7 +2802,7 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="80" t="s">
+      <c r="A38" s="66" t="s">
         <v>53</v>
       </c>
       <c r="B38" s="47" t="s">
@@ -2804,7 +2836,7 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="81"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="47" t="s">
         <v>56</v>
       </c>
@@ -2836,7 +2868,7 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="81"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="47" t="s">
         <v>58</v>
       </c>
@@ -2868,7 +2900,7 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="47" t="s">
         <v>60</v>
       </c>
@@ -2903,14 +2935,14 @@
       <c r="A42" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="95"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="97"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="90"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -2933,16 +2965,16 @@
       <c r="A43" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="77" t="s">
+      <c r="B43" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="79"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="63"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2962,19 +2994,19 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="80" t="s">
+      <c r="A44" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="98" t="s">
+      <c r="B44" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="100"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="94"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -2994,15 +3026,15 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="81"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="71"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="59"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3022,15 +3054,15 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="81"/>
-      <c r="B46" s="101"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="71"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="59"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -3050,7 +3082,7 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="81"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
       <c r="D47" s="51"/>
@@ -3078,7 +3110,7 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="81"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
       <c r="D48" s="51"/>
@@ -3106,7 +3138,7 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="81"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
       <c r="D49" s="51"/>
@@ -3134,7 +3166,7 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="81"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
       <c r="D50" s="51"/>
@@ -3162,15 +3194,15 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="81"/>
-      <c r="B51" s="101"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="71"/>
+      <c r="A51" s="68"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="59"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -3190,15 +3222,15 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="81"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="71"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="59"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -3218,15 +3250,15 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="81"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="71"/>
+      <c r="A53" s="68"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="59"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -3246,15 +3278,15 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="82"/>
-      <c r="B54" s="101"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="71"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="59"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -3277,16 +3309,16 @@
       <c r="A55" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="79"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="63"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -29769,13 +29801,65 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="G31:I31"/>
@@ -29792,65 +29876,13 @@
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="A44:A54"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="D30:F30"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0000-000000000000}">
